--- a/CV.xlsx
+++ b/CV.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindsaylee/Google Drive/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindsaylee/Google Drive/RepTemplates/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F140B4FB-35D7-4246-A4E0-DBE1B4D33040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AF8AFD-9513-3043-9C2A-15B665B8A373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="580" windowWidth="28040" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="1400" windowWidth="28040" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CV" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="OLE_LINK1" localSheetId="0">[1]publications!$B$4</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
   <si>
     <t>section</t>
   </si>
@@ -173,18 +179,6 @@
   </si>
   <si>
     <t xml:space="preserve">Assisted with development of evaluation and informational materials and study recruitment </t>
-  </si>
-  <si>
-    <t>Scientific Papers</t>
-  </si>
-  <si>
-    <t>Abstracts Accepted for Oral Presentation</t>
-  </si>
-  <si>
-    <t>Abstracts Accepted for Poster Presentation</t>
-  </si>
-  <si>
-    <t>Skills</t>
   </si>
   <si>
     <t>Professional Associations and Memberships</t>
@@ -330,6 +324,24 @@
   </si>
   <si>
     <t xml:space="preserve">GPA: </t>
+  </si>
+  <si>
+    <t>Organized club finances and led triathlon practice sessions</t>
+  </si>
+  <si>
+    <t>Interests</t>
+  </si>
+  <si>
+    <t>Planned lunch time talks for physicians to present topics relevant to providing healthcare for Hispanic communities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planned and taught workshops for medical students to practice medical Spanish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participated in seven triathlons, including Collegiate Nationals in 2012 </t>
+  </si>
+  <si>
+    <t>Tennis, scuba diving, gardening, and reading</t>
   </si>
 </sst>
 </file>
@@ -838,7 +850,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -853,6 +865,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -911,6 +926,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="publications"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>S.Zhao, L.Lee, M.LaPlaca, R.Gore, TR. Espinoza, KA. Hendershot, KM. Evans, B.Liu, N.Kosoris, A.Medda, S.E. Phelps, DW. Wright. "Concussion Discrimination Accuracy Using Common Assessment Tools" Poster session presented at the Annual Meeting of the Society for Academic Emergency Medicine, Orlando, Florida, May 16-19, 2017.</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1210,14 +1244,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
     <col min="3" max="3" width="27.1640625" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="1"/>
@@ -1281,7 +1316,7 @@
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1452,13 +1487,13 @@
         <v>41</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1484,7 +1519,7 @@
         <v>41</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>49</v>
@@ -1494,113 +1529,185 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>52</v>
+      <c r="A11" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>53</v>
+      <c r="A12" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
-        <v>56</v>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>15</v>
@@ -1609,106 +1716,22 @@
         <v>73</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>58</v>
+      <c r="H18" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <ignoredErrors>
-    <ignoredError sqref="F14" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/CV.xlsx
+++ b/CV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindsaylee/Google Drive/RepTemplates/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AF8AFD-9513-3043-9C2A-15B665B8A373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC07AFC4-7B03-0C45-B9BD-C08B5082CCD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="1400" windowWidth="28040" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28040" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CV" sheetId="1" r:id="rId1"/>
@@ -938,7 +938,7 @@
       <sheetData sheetId="0">
         <row r="4">
           <cell r="B4" t="str">
-            <v>S.Zhao, L.Lee, M.LaPlaca, R.Gore, TR. Espinoza, KA. Hendershot, KM. Evans, B.Liu, N.Kosoris, A.Medda, S.E. Phelps, DW. Wright. "Concussion Discrimination Accuracy Using Common Assessment Tools" Poster session presented at the Annual Meeting of the Society for Academic Emergency Medicine, Orlando, Florida, May 16-19, 2017.</v>
+            <v>S.Zhao, L.Lee, M.LaPlaca, R.Gore, TR. Espinoza, KA. Hendershot, KM. Evans, B.Liu, N.Kosoris, A.Medda, S.E. Phelps, DW. Wright</v>
           </cell>
         </row>
       </sheetData>
@@ -1247,13 +1247,13 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="1"/>
   </cols>
